--- a/Documents/ExcelTemplate_ListOfAuthors.xlsx
+++ b/Documents/ExcelTemplate_ListOfAuthors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
   <si>
     <t xml:space="preserve">Email*</t>
   </si>
@@ -845,6 +845,45 @@
   </si>
   <si>
     <t xml:space="preserve">Massachusetts Institute of Technology,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rita.t.costa@princeton.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teixeira da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oergf@maths.otago.ac.nz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frauendiener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Otago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chris.stevens@canterbury.ac.nz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Canterbury</t>
   </si>
 </sst>
 </file>
@@ -1022,11 +1061,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="D10:F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="17.4"/>
@@ -2168,6 +2207,57 @@
       </c>
       <c r="I66" s="0" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
